--- a/data/word_list_10.xlsx
+++ b/data/word_list_10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -420,16 +400,13 @@
           <t>kordhose</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>4.05</v>
+      </c>
+      <c r="D2">
         <v>0.06</v>
       </c>
-      <c r="D2">
-        <v>4.05</v>
-      </c>
-      <c r="F2">
-        <v>4.05</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>cord trousers</t>
         </is>
@@ -441,13 +418,10 @@
           <t>hallenschuh</t>
         </is>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>4.06</v>
       </c>
-      <c r="F3">
-        <v>4.06</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>gym shoe</t>
         </is>
@@ -462,10 +436,7 @@
       <c r="C4">
         <v>4.06</v>
       </c>
-      <c r="F4">
-        <v>4.06</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>lamb</t>
         </is>
@@ -480,10 +451,7 @@
       <c r="C5">
         <v>4.06</v>
       </c>
-      <c r="F5">
-        <v>4.06</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>sea</t>
         </is>
@@ -498,10 +466,7 @@
       <c r="C6">
         <v>4.06</v>
       </c>
-      <c r="F6">
-        <v>4.06</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>fine</t>
         </is>
@@ -516,10 +481,7 @@
       <c r="C7">
         <v>4.06</v>
       </c>
-      <c r="F7">
-        <v>4.06</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>cheek</t>
         </is>
@@ -534,10 +496,7 @@
       <c r="C8">
         <v>4.07</v>
       </c>
-      <c r="F8">
-        <v>4.07</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>brook</t>
         </is>
@@ -552,10 +511,7 @@
       <c r="C9">
         <v>4.07</v>
       </c>
-      <c r="F9">
-        <v>4.07</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>burst</t>
         </is>
@@ -570,10 +526,7 @@
       <c r="C10">
         <v>4.07</v>
       </c>
-      <c r="F10">
-        <v>4.07</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>rider</t>
         </is>
@@ -588,10 +541,7 @@
       <c r="C11">
         <v>4.08</v>
       </c>
-      <c r="F11">
-        <v>4.08</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>shadow</t>
         </is>
@@ -606,10 +556,7 @@
       <c r="C12">
         <v>4.08</v>
       </c>
-      <c r="F12">
-        <v>4.08</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>shovel</t>
         </is>
@@ -624,10 +571,7 @@
       <c r="C13">
         <v>4.08</v>
       </c>
-      <c r="F13">
-        <v>4.08</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>newspaper</t>
         </is>
@@ -642,10 +586,7 @@
       <c r="C14">
         <v>4.09</v>
       </c>
-      <c r="F14">
-        <v>4.09</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>know</t>
         </is>
@@ -657,25 +598,22 @@
           <t>stricken</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C15">
         <v>4.1</v>
       </c>
-      <c r="F15">
-        <v>4.1</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>knit</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -685,16 +623,13 @@
           <t>luchs</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>4.1</v>
+      </c>
+      <c r="D16">
         <v>0.96</v>
       </c>
-      <c r="D16">
-        <v>4.1</v>
-      </c>
-      <c r="F16">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>lynx</t>
         </is>
@@ -706,16 +641,13 @@
           <t>seestern</t>
         </is>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>4.1</v>
+      </c>
+      <c r="D17">
         <v>1.11</v>
       </c>
-      <c r="D17">
-        <v>4.1</v>
-      </c>
-      <c r="F17">
-        <v>4.1</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>starfish</t>
         </is>
@@ -727,16 +659,13 @@
           <t>wildkatze</t>
         </is>
       </c>
-      <c r="B18">
+      <c r="C18">
+        <v>4.1</v>
+      </c>
+      <c r="D18">
         <v>0.5</v>
       </c>
-      <c r="D18">
-        <v>4.1</v>
-      </c>
-      <c r="F18">
-        <v>4.1</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>wild cat</t>
         </is>
@@ -748,16 +677,13 @@
           <t>kanarienvogel</t>
         </is>
       </c>
-      <c r="B19">
+      <c r="C19">
+        <v>4.1</v>
+      </c>
+      <c r="D19">
         <v>1.46</v>
       </c>
-      <c r="D19">
-        <v>4.1</v>
-      </c>
-      <c r="F19">
-        <v>4.1</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>canary</t>
         </is>
@@ -769,16 +695,13 @@
           <t>feldsalat</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="C20">
+        <v>4.1</v>
+      </c>
+      <c r="D20">
         <v>0.38</v>
       </c>
-      <c r="D20">
-        <v>4.1</v>
-      </c>
-      <c r="F20">
-        <v>4.1</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>lamb's lettuce</t>
         </is>
@@ -790,37 +713,28 @@
           <t>ananas</t>
         </is>
       </c>
-      <c r="B21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>4.1</v>
+      </c>
+      <c r="D21">
         <v>1.19</v>
       </c>
-      <c r="D21">
-        <v>4.1</v>
-      </c>
       <c r="E21">
-        <v>4.25</v>
-      </c>
-      <c r="F21">
-        <v>4.1</v>
+        <v>6.21</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>pineapple</t>
-        </is>
-      </c>
-      <c r="I21">
-        <v>6.21</v>
-      </c>
-      <c r="J21">
-        <v>6.25</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -830,13 +744,10 @@
           <t>kellerregal</t>
         </is>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>4.1</v>
       </c>
-      <c r="F22">
-        <v>4.1</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>basement shelf</t>
         </is>
@@ -848,16 +759,13 @@
           <t>posaune</t>
         </is>
       </c>
-      <c r="B23">
+      <c r="C23">
+        <v>4.1</v>
+      </c>
+      <c r="D23">
         <v>2.49</v>
       </c>
-      <c r="D23">
-        <v>4.1</v>
-      </c>
-      <c r="F23">
-        <v>4.1</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>trombone</t>
         </is>
@@ -869,16 +777,13 @@
           <t>schleifpapier</t>
         </is>
       </c>
-      <c r="B24">
+      <c r="C24">
+        <v>4.1</v>
+      </c>
+      <c r="D24">
         <v>0.02</v>
       </c>
-      <c r="D24">
-        <v>4.1</v>
-      </c>
-      <c r="F24">
-        <v>4.1</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>abrasive paper</t>
         </is>
@@ -890,16 +795,13 @@
           <t>eiskunstlauf</t>
         </is>
       </c>
-      <c r="B25">
+      <c r="C25">
+        <v>4.1</v>
+      </c>
+      <c r="D25">
         <v>0.24</v>
       </c>
-      <c r="D25">
-        <v>4.1</v>
-      </c>
-      <c r="F25">
-        <v>4.1</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>figure skating</t>
         </is>
@@ -911,16 +813,13 @@
           <t>bodenturnen</t>
         </is>
       </c>
-      <c r="B26">
+      <c r="C26">
+        <v>4.1</v>
+      </c>
+      <c r="D26">
         <v>0.2</v>
       </c>
-      <c r="D26">
-        <v>4.1</v>
-      </c>
-      <c r="F26">
-        <v>4.1</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>floor exercises</t>
         </is>
@@ -935,10 +834,7 @@
       <c r="C27">
         <v>4.11</v>
       </c>
-      <c r="F27">
-        <v>4.11</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>cutlery</t>
         </is>
@@ -953,19 +849,13 @@
       <c r="C28">
         <v>4.11</v>
       </c>
-      <c r="F28">
-        <v>4.11</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="E28">
+        <v>3.71</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>doctor</t>
         </is>
-      </c>
-      <c r="I28">
-        <v>3.71</v>
-      </c>
-      <c r="J28">
-        <v>4.38</v>
       </c>
     </row>
     <row r="29">
@@ -974,28 +864,19 @@
           <t>flöte</t>
         </is>
       </c>
-      <c r="B29">
-        <v>4.43</v>
-      </c>
       <c r="C29">
         <v>4.11</v>
       </c>
       <c r="D29">
-        <v>2.85</v>
-      </c>
-      <c r="F29">
-        <v>4.11</v>
-      </c>
-      <c r="H29" t="inlineStr">
+        <v>4.43</v>
+      </c>
+      <c r="E29">
+        <v>7.71</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>flute</t>
         </is>
-      </c>
-      <c r="I29">
-        <v>7.71</v>
-      </c>
-      <c r="J29">
-        <v>7.79</v>
       </c>
     </row>
     <row r="30">
@@ -1004,34 +885,25 @@
           <t>gürtel</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C30">
         <v>4.11</v>
       </c>
       <c r="E30">
-        <v>3.95</v>
-      </c>
-      <c r="F30">
-        <v>4.11</v>
+        <v>4.21</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
           <t>belt</t>
-        </is>
-      </c>
-      <c r="I30">
-        <v>4.21</v>
-      </c>
-      <c r="J30">
-        <v>5.23</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1044,19 +916,13 @@
       <c r="C31">
         <v>4.11</v>
       </c>
-      <c r="F31">
-        <v>4.11</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="E31">
+        <v>3.21</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>comb</t>
         </is>
-      </c>
-      <c r="I31">
-        <v>3.21</v>
-      </c>
-      <c r="J31">
-        <v>4.9</v>
       </c>
     </row>
     <row r="32">
@@ -1065,28 +931,19 @@
           <t>klavier</t>
         </is>
       </c>
-      <c r="B32">
-        <v>12.32</v>
-      </c>
       <c r="C32">
         <v>4.11</v>
       </c>
       <c r="D32">
-        <v>2.8</v>
-      </c>
-      <c r="F32">
-        <v>4.11</v>
-      </c>
-      <c r="H32" t="inlineStr">
+        <v>12.32</v>
+      </c>
+      <c r="E32">
+        <v>3.71</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>piano</t>
         </is>
-      </c>
-      <c r="I32">
-        <v>3.71</v>
-      </c>
-      <c r="J32">
-        <v>5.34</v>
       </c>
     </row>
     <row r="33">
@@ -1098,10 +955,7 @@
       <c r="C33">
         <v>4.11</v>
       </c>
-      <c r="F33">
-        <v>4.11</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>neighbour</t>
         </is>
@@ -1116,10 +970,7 @@
       <c r="C34">
         <v>4.11</v>
       </c>
-      <c r="F34">
-        <v>4.11</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>share</t>
         </is>
@@ -1134,10 +985,7 @@
       <c r="C35">
         <v>4.11</v>
       </c>
-      <c r="F35">
-        <v>4.11</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>tunnel</t>
         </is>
@@ -1152,10 +1000,7 @@
       <c r="C36">
         <v>4.11</v>
       </c>
-      <c r="F36">
-        <v>4.11</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
@@ -1170,10 +1015,7 @@
       <c r="C37">
         <v>4.11</v>
       </c>
-      <c r="F37">
-        <v>4.11</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>count</t>
         </is>
@@ -1185,19 +1027,13 @@
           <t>kuckuck</t>
         </is>
       </c>
-      <c r="B38">
-        <v>2.25</v>
-      </c>
       <c r="C38">
         <v>4.12</v>
       </c>
       <c r="D38">
-        <v>2.05</v>
-      </c>
-      <c r="F38">
-        <v>4.12</v>
-      </c>
-      <c r="H38" t="inlineStr">
+        <v>2.25</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>cuckoo</t>
         </is>
@@ -1209,28 +1045,19 @@
           <t>mantel</t>
         </is>
       </c>
-      <c r="B39">
-        <v>34.11</v>
-      </c>
       <c r="C39">
         <v>4.12</v>
       </c>
       <c r="D39">
-        <v>2.95</v>
-      </c>
-      <c r="F39">
-        <v>4.12</v>
-      </c>
-      <c r="H39" t="inlineStr">
+        <v>34.11</v>
+      </c>
+      <c r="E39">
+        <v>5.71</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>coat</t>
         </is>
-      </c>
-      <c r="I39">
-        <v>5.71</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1242,10 +1069,7 @@
       <c r="C40">
         <v>4.12</v>
       </c>
-      <c r="F40">
-        <v>4.12</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>handbill</t>
         </is>
@@ -1260,10 +1084,7 @@
       <c r="C41">
         <v>4.13</v>
       </c>
-      <c r="F41">
-        <v>4.13</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>win</t>
         </is>
@@ -1278,10 +1099,7 @@
       <c r="C42">
         <v>4.13</v>
       </c>
-      <c r="F42">
-        <v>4.13</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>wake</t>
         </is>
@@ -1296,10 +1114,7 @@
       <c r="C43">
         <v>4.13</v>
       </c>
-      <c r="F43">
-        <v>4.13</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>sorcerer</t>
         </is>
@@ -1314,10 +1129,7 @@
       <c r="C44">
         <v>4.14</v>
       </c>
-      <c r="F44">
-        <v>4.14</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>singing</t>
         </is>
@@ -1332,10 +1144,7 @@
       <c r="C45">
         <v>4.14</v>
       </c>
-      <c r="F45">
-        <v>4.14</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>body</t>
         </is>
@@ -1350,10 +1159,7 @@
       <c r="C46">
         <v>4.14</v>
       </c>
-      <c r="F46">
-        <v>4.14</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>chick</t>
         </is>
@@ -1368,10 +1174,7 @@
       <c r="C47">
         <v>4.14</v>
       </c>
-      <c r="F47">
-        <v>4.14</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>nine</t>
         </is>
@@ -1386,10 +1189,7 @@
       <c r="C48">
         <v>4.14</v>
       </c>
-      <c r="F48">
-        <v>4.14</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>salty</t>
         </is>
@@ -1404,10 +1204,7 @@
       <c r="C49">
         <v>4.14</v>
       </c>
-      <c r="F49">
-        <v>4.14</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>shoulder</t>
         </is>
@@ -1422,10 +1219,7 @@
       <c r="C50">
         <v>4.14</v>
       </c>
-      <c r="F50">
-        <v>4.14</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sunshine</t>
         </is>
@@ -1440,10 +1234,7 @@
       <c r="C51">
         <v>4.15</v>
       </c>
-      <c r="F51">
-        <v>4.15</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sunday</t>
         </is>
@@ -1455,16 +1246,13 @@
           <t>kohlmeise</t>
         </is>
       </c>
-      <c r="B52">
+      <c r="C52">
+        <v>4.15</v>
+      </c>
+      <c r="D52">
         <v>0.03</v>
       </c>
-      <c r="D52">
-        <v>4.15</v>
-      </c>
-      <c r="F52">
-        <v>4.15</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>great tit</t>
         </is>
@@ -1476,16 +1264,13 @@
           <t>zaunkönig</t>
         </is>
       </c>
-      <c r="B53">
+      <c r="C53">
+        <v>4.15</v>
+      </c>
+      <c r="D53">
         <v>0.32</v>
       </c>
-      <c r="D53">
-        <v>4.15</v>
-      </c>
-      <c r="F53">
-        <v>4.15</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>wren</t>
         </is>
@@ -1497,16 +1282,13 @@
           <t>blattsalat</t>
         </is>
       </c>
-      <c r="B54">
+      <c r="C54">
+        <v>4.15</v>
+      </c>
+      <c r="D54">
         <v>0.15</v>
       </c>
-      <c r="D54">
-        <v>4.15</v>
-      </c>
-      <c r="F54">
-        <v>4.15</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>leaf salad</t>
         </is>
@@ -1518,16 +1300,13 @@
           <t>ohrenwärmer</t>
         </is>
       </c>
-      <c r="B55">
+      <c r="C55">
+        <v>4.15</v>
+      </c>
+      <c r="D55">
         <v>0.02</v>
       </c>
-      <c r="D55">
-        <v>4.15</v>
-      </c>
-      <c r="F55">
-        <v>4.15</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>ear muffs</t>
         </is>
@@ -1539,16 +1318,13 @@
           <t>pelzmantel</t>
         </is>
       </c>
-      <c r="B56">
+      <c r="C56">
+        <v>4.15</v>
+      </c>
+      <c r="D56">
         <v>1.3</v>
       </c>
-      <c r="D56">
-        <v>4.15</v>
-      </c>
-      <c r="F56">
-        <v>4.15</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>fur coat</t>
         </is>
@@ -1560,16 +1336,13 @@
           <t>s-bahn</t>
         </is>
       </c>
-      <c r="B57">
+      <c r="C57">
+        <v>4.15</v>
+      </c>
+      <c r="D57">
         <v>1.55</v>
       </c>
-      <c r="D57">
-        <v>4.15</v>
-      </c>
-      <c r="F57">
-        <v>4.15</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>city train</t>
         </is>
@@ -1581,16 +1354,13 @@
           <t>campingstuhl</t>
         </is>
       </c>
-      <c r="B58">
+      <c r="C58">
+        <v>4.15</v>
+      </c>
+      <c r="D58">
         <v>0.01</v>
       </c>
-      <c r="D58">
-        <v>4.15</v>
-      </c>
-      <c r="F58">
-        <v>4.15</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>camping chair</t>
         </is>
@@ -1602,16 +1372,13 @@
           <t>couchtisch</t>
         </is>
       </c>
-      <c r="B59">
+      <c r="C59">
+        <v>4.15</v>
+      </c>
+      <c r="D59">
         <v>0.18</v>
       </c>
-      <c r="D59">
-        <v>4.15</v>
-      </c>
-      <c r="F59">
-        <v>4.15</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>coffee table</t>
         </is>
@@ -1623,16 +1390,13 @@
           <t>sandpapier</t>
         </is>
       </c>
-      <c r="B60">
+      <c r="C60">
+        <v>4.15</v>
+      </c>
+      <c r="D60">
         <v>0.34</v>
       </c>
-      <c r="D60">
-        <v>4.15</v>
-      </c>
-      <c r="F60">
-        <v>4.15</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>sandpaper</t>
         </is>
@@ -1644,16 +1408,13 @@
           <t>segeln</t>
         </is>
       </c>
-      <c r="B61">
+      <c r="C61">
+        <v>4.15</v>
+      </c>
+      <c r="D61">
         <v>0.03</v>
       </c>
-      <c r="D61">
-        <v>4.15</v>
-      </c>
-      <c r="F61">
-        <v>4.15</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>sailing</t>
         </is>
@@ -1665,16 +1426,13 @@
           <t>stirnband</t>
         </is>
       </c>
-      <c r="B62">
+      <c r="C62">
+        <v>4.16</v>
+      </c>
+      <c r="D62">
         <v>0.43</v>
       </c>
-      <c r="D62">
-        <v>4.16</v>
-      </c>
-      <c r="F62">
-        <v>4.16</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>headband</t>
         </is>
@@ -1686,16 +1444,13 @@
           <t>klavierhocker</t>
         </is>
       </c>
-      <c r="B63">
+      <c r="C63">
+        <v>4.16</v>
+      </c>
+      <c r="D63">
         <v>0.03</v>
       </c>
-      <c r="D63">
-        <v>4.16</v>
-      </c>
-      <c r="F63">
-        <v>4.16</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>piano stool</t>
         </is>
@@ -1707,28 +1462,22 @@
           <t>pfanne</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C64">
         <v>4.16</v>
       </c>
-      <c r="E64">
-        <v>3.25</v>
-      </c>
-      <c r="F64">
-        <v>4.16</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
           <t>frying pan</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1741,10 +1490,7 @@
       <c r="C65">
         <v>4.16</v>
       </c>
-      <c r="F65">
-        <v>4.16</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>seven</t>
         </is>
@@ -1759,10 +1505,7 @@
       <c r="C66">
         <v>4.16</v>
       </c>
-      <c r="F66">
-        <v>4.16</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>shove</t>
         </is>
@@ -1777,10 +1520,7 @@
       <c r="C67">
         <v>4.16</v>
       </c>
-      <c r="F67">
-        <v>4.16</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>super</t>
         </is>
@@ -1792,16 +1532,13 @@
           <t>grünspecht</t>
         </is>
       </c>
-      <c r="B68">
+      <c r="C68">
+        <v>4.17</v>
+      </c>
+      <c r="D68">
         <v>0.11</v>
       </c>
-      <c r="D68">
-        <v>4.17</v>
-      </c>
-      <c r="F68">
-        <v>4.17</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>green woodpecker</t>
         </is>
@@ -1813,13 +1550,10 @@
           <t>regenschirmhalter</t>
         </is>
       </c>
-      <c r="D69">
+      <c r="C69">
         <v>4.17</v>
       </c>
-      <c r="F69">
-        <v>4.17</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>umbrella holder</t>
         </is>
@@ -1831,28 +1565,19 @@
           <t>elefant</t>
         </is>
       </c>
-      <c r="B70">
-        <v>10.28</v>
-      </c>
       <c r="C70">
         <v>4.17</v>
       </c>
       <c r="D70">
-        <v>2.05</v>
-      </c>
-      <c r="F70">
-        <v>4.17</v>
-      </c>
-      <c r="H70" t="inlineStr">
+        <v>10.28</v>
+      </c>
+      <c r="E70">
+        <v>1.95</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>elephant</t>
         </is>
-      </c>
-      <c r="I70">
-        <v>1.95</v>
-      </c>
-      <c r="J70">
-        <v>4.7</v>
       </c>
     </row>
     <row r="71">
@@ -1864,10 +1589,7 @@
       <c r="C71">
         <v>4.17</v>
       </c>
-      <c r="F71">
-        <v>4.17</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>smell</t>
         </is>
@@ -1882,10 +1604,7 @@
       <c r="C72">
         <v>4.17</v>
       </c>
-      <c r="F72">
-        <v>4.17</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
@@ -1900,10 +1619,7 @@
       <c r="C73">
         <v>4.17</v>
       </c>
-      <c r="F73">
-        <v>4.17</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>fog</t>
         </is>
@@ -1918,10 +1634,7 @@
       <c r="C74">
         <v>4.17</v>
       </c>
-      <c r="F74">
-        <v>4.17</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>difficult</t>
         </is>
@@ -1933,19 +1646,13 @@
           <t>bohne</t>
         </is>
       </c>
-      <c r="B75">
-        <v>6.27</v>
-      </c>
       <c r="C75">
         <v>4.18</v>
       </c>
       <c r="D75">
-        <v>2.75</v>
-      </c>
-      <c r="F75">
-        <v>4.18</v>
-      </c>
-      <c r="H75" t="inlineStr">
+        <v>6.27</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>bean</t>
         </is>
@@ -1960,10 +1667,7 @@
       <c r="C76">
         <v>4.18</v>
       </c>
-      <c r="F76">
-        <v>4.18</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>coffee</t>
         </is>
@@ -1978,10 +1682,7 @@
       <c r="C77">
         <v>4.18</v>
       </c>
-      <c r="F77">
-        <v>4.18</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>beat</t>
         </is>
@@ -1996,10 +1697,7 @@
       <c r="C78">
         <v>4.19</v>
       </c>
-      <c r="F78">
-        <v>4.19</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>stop</t>
         </is>
@@ -2014,10 +1712,7 @@
       <c r="C79">
         <v>4.19</v>
       </c>
-      <c r="F79">
-        <v>4.19</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>touch</t>
         </is>
@@ -2032,10 +1727,7 @@
       <c r="C80">
         <v>4.19</v>
       </c>
-      <c r="F80">
-        <v>4.19</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>nature</t>
         </is>
@@ -2050,10 +1742,7 @@
       <c r="C81">
         <v>4.19</v>
       </c>
-      <c r="F81">
-        <v>4.19</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>stitch</t>
         </is>
@@ -2068,10 +1757,7 @@
       <c r="C82">
         <v>4.2</v>
       </c>
-      <c r="F82">
-        <v>4.2</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>work</t>
         </is>
@@ -2083,19 +1769,13 @@
           <t>flugzeug</t>
         </is>
       </c>
-      <c r="B83">
-        <v>59.24</v>
-      </c>
       <c r="C83">
         <v>4.2</v>
       </c>
       <c r="D83">
-        <v>2.35</v>
-      </c>
-      <c r="F83">
-        <v>4.2</v>
-      </c>
-      <c r="H83" t="inlineStr">
+        <v>59.24</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>aeroplane</t>
         </is>
@@ -2110,10 +1790,7 @@
       <c r="C84">
         <v>4.2</v>
       </c>
-      <c r="F84">
-        <v>4.2</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>like</t>
         </is>
@@ -2128,10 +1805,7 @@
       <c r="C85">
         <v>4.2</v>
       </c>
-      <c r="F85">
-        <v>4.2</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>giant</t>
         </is>
@@ -2143,28 +1817,19 @@
           <t>ziege</t>
         </is>
       </c>
-      <c r="B86">
-        <v>5.98</v>
-      </c>
       <c r="C86">
         <v>4.2</v>
       </c>
       <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>4.2</v>
-      </c>
-      <c r="H86" t="inlineStr">
+        <v>5.98</v>
+      </c>
+      <c r="E86">
+        <v>4.71</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>goat</t>
         </is>
-      </c>
-      <c r="I86">
-        <v>4.71</v>
-      </c>
-      <c r="J86">
-        <v>4.68</v>
       </c>
     </row>
     <row r="87">
@@ -2173,16 +1838,13 @@
           <t>blaumeise</t>
         </is>
       </c>
-      <c r="B87">
+      <c r="C87">
+        <v>4.2</v>
+      </c>
+      <c r="D87">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D87">
-        <v>4.2</v>
-      </c>
-      <c r="F87">
-        <v>4.2</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>bluetit</t>
         </is>
@@ -2194,16 +1856,13 @@
           <t>jeans</t>
         </is>
       </c>
-      <c r="B88">
+      <c r="C88">
+        <v>4.2</v>
+      </c>
+      <c r="D88">
         <v>1.64</v>
       </c>
-      <c r="D88">
-        <v>4.2</v>
-      </c>
-      <c r="F88">
-        <v>4.2</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>jeans</t>
         </is>
@@ -2215,16 +1874,13 @@
           <t>lederjacke</t>
         </is>
       </c>
-      <c r="B89">
+      <c r="C89">
+        <v>4.2</v>
+      </c>
+      <c r="D89">
         <v>1.16</v>
       </c>
-      <c r="D89">
-        <v>4.2</v>
-      </c>
-      <c r="F89">
-        <v>4.2</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>leather jacket</t>
         </is>
@@ -2236,16 +1892,13 @@
           <t>pauke</t>
         </is>
       </c>
-      <c r="B90">
+      <c r="C90">
+        <v>4.2</v>
+      </c>
+      <c r="D90">
         <v>2.95</v>
       </c>
-      <c r="D90">
-        <v>4.2</v>
-      </c>
-      <c r="F90">
-        <v>4.2</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>kettledrum</t>
         </is>
@@ -2257,16 +1910,13 @@
           <t>geräteturnen</t>
         </is>
       </c>
-      <c r="B91">
+      <c r="C91">
+        <v>4.2</v>
+      </c>
+      <c r="D91">
         <v>0.16</v>
       </c>
-      <c r="D91">
-        <v>4.2</v>
-      </c>
-      <c r="F91">
-        <v>4.2</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>apparatus gymnastics</t>
         </is>
@@ -2278,16 +1928,13 @@
           <t>gymnastik</t>
         </is>
       </c>
-      <c r="B92">
+      <c r="C92">
+        <v>4.2</v>
+      </c>
+      <c r="D92">
         <v>2.95</v>
       </c>
-      <c r="D92">
-        <v>4.2</v>
-      </c>
-      <c r="F92">
-        <v>4.2</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>gymnastics</t>
         </is>
@@ -2299,13 +1946,10 @@
           <t>skispringen</t>
         </is>
       </c>
-      <c r="D93">
+      <c r="C93">
         <v>4.2</v>
       </c>
-      <c r="F93">
-        <v>4.2</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>ski jumping</t>
         </is>
@@ -2317,16 +1961,13 @@
           <t>pastor</t>
         </is>
       </c>
-      <c r="B94">
+      <c r="C94">
+        <v>4.2</v>
+      </c>
+      <c r="D94">
         <v>23.72</v>
       </c>
-      <c r="D94">
-        <v>4.2</v>
-      </c>
-      <c r="F94">
-        <v>4.2</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>pastor</t>
         </is>
@@ -2341,10 +1982,7 @@
       <c r="C95">
         <v>4.21</v>
       </c>
-      <c r="F95">
-        <v>4.21</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>red sunset</t>
         </is>
@@ -2356,19 +1994,13 @@
           <t>amsel</t>
         </is>
       </c>
-      <c r="B96">
-        <v>1.52</v>
-      </c>
       <c r="C96">
         <v>4.21</v>
       </c>
       <c r="D96">
-        <v>2.45</v>
-      </c>
-      <c r="F96">
-        <v>4.21</v>
-      </c>
-      <c r="H96" t="inlineStr">
+        <v>1.52</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>blackbird</t>
         </is>
@@ -2383,10 +2015,7 @@
       <c r="C97">
         <v>4.21</v>
       </c>
-      <c r="F97">
-        <v>4.21</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>bump</t>
         </is>
@@ -2401,10 +2030,7 @@
       <c r="C98">
         <v>4.21</v>
       </c>
-      <c r="F98">
-        <v>4.21</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
@@ -2419,10 +2045,7 @@
       <c r="C99">
         <v>4.21</v>
       </c>
-      <c r="F99">
-        <v>4.21</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>grey</t>
         </is>
@@ -2434,19 +2057,13 @@
           <t>krokodil</t>
         </is>
       </c>
-      <c r="B100">
-        <v>3.06</v>
-      </c>
       <c r="C100">
         <v>4.21</v>
       </c>
       <c r="D100">
-        <v>2.95</v>
-      </c>
-      <c r="F100">
-        <v>4.21</v>
-      </c>
-      <c r="H100" t="inlineStr">
+        <v>3.06</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>crocodile</t>
         </is>
@@ -2461,10 +2078,7 @@
       <c r="C101">
         <v>4.21</v>
       </c>
-      <c r="F101">
-        <v>4.21</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>silence</t>
         </is>
@@ -2476,16 +2090,13 @@
           <t>reiher</t>
         </is>
       </c>
-      <c r="B102">
+      <c r="C102">
+        <v>4.21</v>
+      </c>
+      <c r="D102">
         <v>1.19</v>
       </c>
-      <c r="D102">
-        <v>4.21</v>
-      </c>
-      <c r="F102">
-        <v>4.21</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>heron</t>
         </is>
@@ -2497,16 +2108,13 @@
           <t>trikot</t>
         </is>
       </c>
-      <c r="B103">
+      <c r="C103">
+        <v>4.21</v>
+      </c>
+      <c r="D103">
         <v>1.26</v>
       </c>
-      <c r="D103">
-        <v>4.21</v>
-      </c>
-      <c r="F103">
-        <v>4.21</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>tricot</t>
         </is>
@@ -2521,10 +2129,7 @@
       <c r="C104">
         <v>4.22</v>
       </c>
-      <c r="F104">
-        <v>4.22</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>well-behaved</t>
         </is>
@@ -2539,10 +2144,7 @@
       <c r="C105">
         <v>4.22</v>
       </c>
-      <c r="F105">
-        <v>4.22</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>hold</t>
         </is>
@@ -2554,34 +2156,25 @@
           <t>nadel</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C106">
         <v>4.22</v>
       </c>
       <c r="E106">
-        <v>4.14</v>
-      </c>
-      <c r="F106">
-        <v>4.22</v>
+        <v>7.21</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
           <t>needle</t>
-        </is>
-      </c>
-      <c r="I106">
-        <v>7.21</v>
-      </c>
-      <c r="J106">
-        <v>5.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2594,10 +2187,7 @@
       <c r="C107">
         <v>4.22</v>
       </c>
-      <c r="F107">
-        <v>4.22</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>do magic</t>
         </is>
@@ -2609,16 +2199,13 @@
           <t>sittich</t>
         </is>
       </c>
-      <c r="B108">
+      <c r="C108">
+        <v>4.22</v>
+      </c>
+      <c r="D108">
         <v>0.35</v>
       </c>
-      <c r="D108">
-        <v>4.22</v>
-      </c>
-      <c r="F108">
-        <v>4.22</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>parakeet</t>
         </is>
@@ -2633,10 +2220,7 @@
       <c r="C109">
         <v>4.23</v>
       </c>
-      <c r="F109">
-        <v>4.23</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>liquid</t>
         </is>
@@ -2648,28 +2232,19 @@
           <t>schwan</t>
         </is>
       </c>
-      <c r="B110">
-        <v>3.47</v>
-      </c>
       <c r="C110">
         <v>4.23</v>
       </c>
       <c r="D110">
-        <v>2.05</v>
-      </c>
-      <c r="F110">
-        <v>4.23</v>
-      </c>
-      <c r="H110" t="inlineStr">
+        <v>3.47</v>
+      </c>
+      <c r="E110">
+        <v>5.21</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>swan</t>
         </is>
-      </c>
-      <c r="I110">
-        <v>5.21</v>
-      </c>
-      <c r="J110">
-        <v>5.45</v>
       </c>
     </row>
     <row r="111">
@@ -2681,10 +2256,7 @@
       <c r="C111">
         <v>4.24</v>
       </c>
-      <c r="F111">
-        <v>4.24</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>hand over</t>
         </is>
@@ -2699,10 +2271,7 @@
       <c r="C112">
         <v>4.24</v>
       </c>
-      <c r="F112">
-        <v>4.24</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -2717,10 +2286,7 @@
       <c r="C113">
         <v>4.25</v>
       </c>
-      <c r="F113">
-        <v>4.25</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>banister</t>
         </is>
@@ -2735,10 +2301,7 @@
       <c r="C114">
         <v>4.25</v>
       </c>
-      <c r="F114">
-        <v>4.25</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>dance</t>
         </is>
@@ -2750,16 +2313,13 @@
           <t>kanu</t>
         </is>
       </c>
-      <c r="B115">
+      <c r="C115">
+        <v>4.25</v>
+      </c>
+      <c r="D115">
         <v>0.54</v>
       </c>
-      <c r="D115">
-        <v>4.25</v>
-      </c>
-      <c r="F115">
-        <v>4.25</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>canoe</t>
         </is>
@@ -2771,16 +2331,13 @@
           <t>wäschetruhe</t>
         </is>
       </c>
-      <c r="B116">
+      <c r="C116">
+        <v>4.25</v>
+      </c>
+      <c r="D116">
         <v>0.04</v>
       </c>
-      <c r="D116">
-        <v>4.25</v>
-      </c>
-      <c r="F116">
-        <v>4.25</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>linen chest</t>
         </is>
@@ -2792,16 +2349,13 @@
           <t>zeitungsständer</t>
         </is>
       </c>
-      <c r="B117">
+      <c r="C117">
+        <v>4.25</v>
+      </c>
+      <c r="D117">
         <v>0.06</v>
       </c>
-      <c r="D117">
-        <v>4.25</v>
-      </c>
-      <c r="F117">
-        <v>4.25</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>newspaper rack</t>
         </is>
@@ -2813,16 +2367,13 @@
           <t>handball</t>
         </is>
       </c>
-      <c r="B118">
+      <c r="C118">
+        <v>4.25</v>
+      </c>
+      <c r="D118">
         <v>0.34</v>
       </c>
-      <c r="D118">
-        <v>4.25</v>
-      </c>
-      <c r="F118">
-        <v>4.25</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>handball</t>
         </is>
@@ -2834,16 +2385,13 @@
           <t>eishockey</t>
         </is>
       </c>
-      <c r="B119">
+      <c r="C119">
+        <v>4.25</v>
+      </c>
+      <c r="D119">
         <v>0.73</v>
       </c>
-      <c r="D119">
-        <v>4.25</v>
-      </c>
-      <c r="F119">
-        <v>4.25</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>ice hockey</t>
         </is>
@@ -2855,16 +2403,13 @@
           <t>heizer</t>
         </is>
       </c>
-      <c r="B120">
+      <c r="C120">
+        <v>4.25</v>
+      </c>
+      <c r="D120">
         <v>3.34</v>
       </c>
-      <c r="D120">
-        <v>4.25</v>
-      </c>
-      <c r="F120">
-        <v>4.25</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>boilerman</t>
         </is>
@@ -2876,16 +2421,13 @@
           <t>kranführer</t>
         </is>
       </c>
-      <c r="B121">
+      <c r="C121">
+        <v>4.25</v>
+      </c>
+      <c r="D121">
         <v>0.4</v>
       </c>
-      <c r="D121">
-        <v>4.25</v>
-      </c>
-      <c r="F121">
-        <v>4.25</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>crane operator</t>
         </is>
@@ -2897,16 +2439,13 @@
           <t>forscher</t>
         </is>
       </c>
-      <c r="B122">
+      <c r="C122">
+        <v>4.25</v>
+      </c>
+      <c r="D122">
         <v>19.96</v>
       </c>
-      <c r="D122">
-        <v>4.25</v>
-      </c>
-      <c r="F122">
-        <v>4.25</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>explorer</t>
         </is>
@@ -2918,16 +2457,13 @@
           <t>kaufmann</t>
         </is>
       </c>
-      <c r="B123">
+      <c r="C123">
+        <v>4.25</v>
+      </c>
+      <c r="D123">
         <v>44.86</v>
       </c>
-      <c r="D123">
-        <v>4.25</v>
-      </c>
-      <c r="F123">
-        <v>4.25</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>merchant</t>
         </is>
@@ -2939,16 +2475,13 @@
           <t>dachdecker</t>
         </is>
       </c>
-      <c r="B124">
+      <c r="C124">
+        <v>4.25</v>
+      </c>
+      <c r="D124">
         <v>0.53</v>
       </c>
-      <c r="D124">
-        <v>4.25</v>
-      </c>
-      <c r="F124">
-        <v>4.25</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>roofer</t>
         </is>
@@ -2960,16 +2493,13 @@
           <t>uhrmacher</t>
         </is>
       </c>
-      <c r="B125">
+      <c r="C125">
+        <v>4.25</v>
+      </c>
+      <c r="D125">
         <v>1.29</v>
       </c>
-      <c r="D125">
-        <v>4.25</v>
-      </c>
-      <c r="F125">
-        <v>4.25</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>watchmaker</t>
         </is>
@@ -2984,10 +2514,7 @@
       <c r="C126">
         <v>4.26</v>
       </c>
-      <c r="F126">
-        <v>4.26</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>ketchup</t>
         </is>
@@ -3002,10 +2529,7 @@
       <c r="C127">
         <v>4.26</v>
       </c>
-      <c r="F127">
-        <v>4.26</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>handle</t>
         </is>
@@ -3020,10 +2544,7 @@
       <c r="C128">
         <v>4.26</v>
       </c>
-      <c r="F128">
-        <v>4.26</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>afternoon</t>
         </is>
@@ -3038,10 +2559,7 @@
       <c r="C129">
         <v>4.26</v>
       </c>
-      <c r="F129">
-        <v>4.26</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>oven</t>
         </is>
@@ -3053,28 +2571,22 @@
           <t>schreiben</t>
         </is>
       </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C130">
         <v>4.26</v>
       </c>
-      <c r="E130">
-        <v>3.52</v>
-      </c>
-      <c r="F130">
-        <v>4.26</v>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
           <t>write</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3084,16 +2596,13 @@
           <t>sauerampfer</t>
         </is>
       </c>
-      <c r="B131">
+      <c r="C131">
+        <v>4.26</v>
+      </c>
+      <c r="D131">
         <v>0.37</v>
       </c>
-      <c r="D131">
-        <v>4.26</v>
-      </c>
-      <c r="F131">
-        <v>4.26</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>sorrel</t>
         </is>
@@ -3108,10 +2617,7 @@
       <c r="C132">
         <v>4.27</v>
       </c>
-      <c r="F132">
-        <v>4.27</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>tight</t>
         </is>
@@ -3126,10 +2632,7 @@
       <c r="C133">
         <v>4.27</v>
       </c>
-      <c r="F133">
-        <v>4.27</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>yoghurt</t>
         </is>
@@ -3144,10 +2647,7 @@
       <c r="C134">
         <v>4.28</v>
       </c>
-      <c r="F134">
-        <v>4.28</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>hall</t>
         </is>
@@ -3162,19 +2662,13 @@
       <c r="C135">
         <v>4.28</v>
       </c>
-      <c r="F135">
-        <v>4.28</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="E135">
+        <v>4.21</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>heart</t>
         </is>
-      </c>
-      <c r="I135">
-        <v>4.21</v>
-      </c>
-      <c r="J135">
-        <v>5.21</v>
       </c>
     </row>
     <row r="136">
@@ -3186,10 +2680,7 @@
       <c r="C136">
         <v>4.28</v>
       </c>
-      <c r="F136">
-        <v>4.28</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>watering can</t>
         </is>
@@ -3204,10 +2695,7 @@
       <c r="C137">
         <v>4.28</v>
       </c>
-      <c r="F137">
-        <v>4.28</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
@@ -3222,10 +2710,7 @@
       <c r="C138">
         <v>4.28</v>
       </c>
-      <c r="F138">
-        <v>4.28</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -3240,10 +2725,7 @@
       <c r="C139">
         <v>4.28</v>
       </c>
-      <c r="F139">
-        <v>4.28</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>sponge</t>
         </is>
@@ -3258,10 +2740,7 @@
       <c r="C140">
         <v>4.29</v>
       </c>
-      <c r="F140">
-        <v>4.29</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>rubbish</t>
         </is>
@@ -3273,19 +2752,13 @@
           <t>bauer</t>
         </is>
       </c>
-      <c r="B141">
-        <v>82.27</v>
-      </c>
       <c r="C141">
         <v>4.29</v>
       </c>
       <c r="D141">
-        <v>1.9</v>
-      </c>
-      <c r="F141">
-        <v>4.29</v>
-      </c>
-      <c r="H141" t="inlineStr">
+        <v>82.27</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>farmer</t>
         </is>
@@ -3300,10 +2773,7 @@
       <c r="C142">
         <v>4.29</v>
       </c>
-      <c r="F142">
-        <v>4.29</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>nice</t>
         </is>
@@ -3318,10 +2788,7 @@
       <c r="C143">
         <v>4.29</v>
       </c>
-      <c r="F143">
-        <v>4.29</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>space</t>
         </is>
@@ -3336,10 +2803,7 @@
       <c r="C144">
         <v>4.29</v>
       </c>
-      <c r="F144">
-        <v>4.29</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>tyre</t>
         </is>
@@ -3354,19 +2818,13 @@
       <c r="C145">
         <v>4.29</v>
       </c>
-      <c r="F145">
-        <v>4.29</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="E145">
+        <v>3.21</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>box</t>
         </is>
-      </c>
-      <c r="I145">
-        <v>3.21</v>
-      </c>
-      <c r="J145">
-        <v>4.6</v>
       </c>
     </row>
     <row r="146">
@@ -3378,10 +2836,7 @@
       <c r="C146">
         <v>4.29</v>
       </c>
-      <c r="F146">
-        <v>4.29</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>winner</t>
         </is>
@@ -3396,10 +2851,7 @@
       <c r="C147">
         <v>4.29</v>
       </c>
-      <c r="F147">
-        <v>4.29</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>injured</t>
         </is>
@@ -3414,10 +2866,7 @@
       <c r="C148">
         <v>4.3</v>
       </c>
-      <c r="F148">
-        <v>4.3</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>ring up</t>
         </is>
@@ -3429,19 +2878,13 @@
           <t>bank</t>
         </is>
       </c>
-      <c r="B149">
-        <v>84.73</v>
-      </c>
       <c r="C149">
         <v>4.3</v>
       </c>
       <c r="D149">
-        <v>1.85</v>
-      </c>
-      <c r="F149">
-        <v>4.3</v>
-      </c>
-      <c r="H149" t="inlineStr">
+        <v>84.73</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>bench</t>
         </is>
@@ -3456,19 +2899,13 @@
       <c r="C150">
         <v>4.3</v>
       </c>
-      <c r="F150">
-        <v>4.3</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="E150">
+        <v>4.71</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>king</t>
         </is>
-      </c>
-      <c r="I150">
-        <v>4.71</v>
-      </c>
-      <c r="J150">
-        <v>5.16</v>
       </c>
     </row>
     <row r="151">
@@ -3480,10 +2917,7 @@
       <c r="C151">
         <v>4.3</v>
       </c>
-      <c r="F151">
-        <v>4.3</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>fir</t>
         </is>
@@ -3498,19 +2932,13 @@
       <c r="C152">
         <v>4.3</v>
       </c>
-      <c r="F152">
-        <v>4.3</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="E152">
+        <v>4.21</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>toast</t>
         </is>
-      </c>
-      <c r="I152">
-        <v>4.21</v>
-      </c>
-      <c r="J152">
-        <v>5.5</v>
       </c>
     </row>
     <row r="153">
@@ -3519,16 +2947,13 @@
           <t>grünkohl</t>
         </is>
       </c>
-      <c r="B153">
+      <c r="C153">
+        <v>4.3</v>
+      </c>
+      <c r="D153">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D153">
-        <v>4.3</v>
-      </c>
-      <c r="F153">
-        <v>4.3</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>green cabbage</t>
         </is>
@@ -3540,16 +2965,13 @@
           <t>vitrine</t>
         </is>
       </c>
-      <c r="B154">
+      <c r="C154">
+        <v>4.3</v>
+      </c>
+      <c r="D154">
         <v>1.54</v>
       </c>
-      <c r="D154">
-        <v>4.3</v>
-      </c>
-      <c r="F154">
-        <v>4.3</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>display cabinet</t>
         </is>
@@ -3561,16 +2983,13 @@
           <t>leichtathletik</t>
         </is>
       </c>
-      <c r="B155">
+      <c r="C155">
+        <v>4.3</v>
+      </c>
+      <c r="D155">
         <v>1.1</v>
       </c>
-      <c r="D155">
-        <v>4.3</v>
-      </c>
-      <c r="F155">
-        <v>4.3</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>athletics</t>
         </is>
@@ -3582,13 +3001,10 @@
           <t>kanufahren</t>
         </is>
       </c>
-      <c r="D156">
+      <c r="C156">
         <v>4.3</v>
       </c>
-      <c r="F156">
-        <v>4.3</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>canoeing</t>
         </is>
@@ -3600,16 +3016,13 @@
           <t>zimmermann</t>
         </is>
       </c>
-      <c r="B157">
+      <c r="C157">
+        <v>4.3</v>
+      </c>
+      <c r="D157">
         <v>8.449999999999999</v>
       </c>
-      <c r="D157">
-        <v>4.3</v>
-      </c>
-      <c r="F157">
-        <v>4.3</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>carpenter</t>
         </is>
@@ -3624,10 +3037,7 @@
       <c r="C158">
         <v>4.31</v>
       </c>
-      <c r="F158">
-        <v>4.31</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>yelling</t>
         </is>
@@ -3642,10 +3052,7 @@
       <c r="C159">
         <v>4.31</v>
       </c>
-      <c r="F159">
-        <v>4.31</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>six</t>
         </is>
@@ -3660,10 +3067,7 @@
       <c r="C160">
         <v>4.31</v>
       </c>
-      <c r="F160">
-        <v>4.31</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>ton</t>
         </is>
@@ -3675,16 +3079,13 @@
           <t>iltis</t>
         </is>
       </c>
-      <c r="B161">
+      <c r="C161">
+        <v>4.32</v>
+      </c>
+      <c r="D161">
         <v>0.7</v>
       </c>
-      <c r="D161">
-        <v>4.32</v>
-      </c>
-      <c r="F161">
-        <v>4.32</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>polecat</t>
         </is>
@@ -3699,10 +3100,7 @@
       <c r="C162">
         <v>4.32</v>
       </c>
-      <c r="F162">
-        <v>4.32</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>until</t>
         </is>
@@ -3717,10 +3115,7 @@
       <c r="C163">
         <v>4.32</v>
       </c>
-      <c r="F163">
-        <v>4.32</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>tomcat</t>
         </is>
@@ -3735,10 +3130,7 @@
       <c r="C164">
         <v>4.32</v>
       </c>
-      <c r="F164">
-        <v>4.32</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>shine</t>
         </is>
@@ -3753,10 +3145,7 @@
       <c r="C165">
         <v>4.32</v>
       </c>
-      <c r="F165">
-        <v>4.32</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>paw</t>
         </is>
@@ -3771,10 +3160,7 @@
       <c r="C166">
         <v>4.32</v>
       </c>
-      <c r="F166">
-        <v>4.32</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>sandal</t>
         </is>
@@ -3789,10 +3175,7 @@
       <c r="C167">
         <v>4.32</v>
       </c>
-      <c r="F167">
-        <v>4.32</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
@@ -3807,10 +3190,7 @@
       <c r="C168">
         <v>4.33</v>
       </c>
-      <c r="F168">
-        <v>4.33</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>fountain</t>
         </is>
@@ -3825,10 +3205,7 @@
       <c r="C169">
         <v>4.33</v>
       </c>
-      <c r="F169">
-        <v>4.33</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>thursday</t>
         </is>
@@ -3843,10 +3220,7 @@
       <c r="C170">
         <v>4.33</v>
       </c>
-      <c r="F170">
-        <v>4.33</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>cage</t>
         </is>
@@ -3861,10 +3235,7 @@
       <c r="C171">
         <v>4.33</v>
       </c>
-      <c r="F171">
-        <v>4.33</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>monday</t>
         </is>
@@ -3879,10 +3250,7 @@
       <c r="C172">
         <v>4.33</v>
       </c>
-      <c r="F172">
-        <v>4.33</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>park</t>
         </is>
@@ -3897,19 +3265,13 @@
       <c r="C173">
         <v>4.33</v>
       </c>
-      <c r="F173">
-        <v>4.33</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="E173">
+        <v>1.95</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>umbrella</t>
         </is>
-      </c>
-      <c r="I173">
-        <v>1.95</v>
-      </c>
-      <c r="J173">
-        <v>5.94</v>
       </c>
     </row>
     <row r="174">
@@ -3921,10 +3283,7 @@
       <c r="C174">
         <v>4.33</v>
       </c>
-      <c r="F174">
-        <v>4.33</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>brave</t>
         </is>
@@ -3936,25 +3295,22 @@
           <t>braten</t>
         </is>
       </c>
-      <c r="E175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C175">
         <v>4.33</v>
       </c>
-      <c r="F175">
-        <v>4.33</v>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
           <t>fry</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3967,10 +3323,7 @@
       <c r="C176">
         <v>4.35</v>
       </c>
-      <c r="F176">
-        <v>4.35</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>eight</t>
         </is>
@@ -3985,19 +3338,13 @@
       <c r="C177">
         <v>4.35</v>
       </c>
-      <c r="F177">
-        <v>4.35</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="E177">
+        <v>3.71</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>dragon</t>
         </is>
-      </c>
-      <c r="I177">
-        <v>3.71</v>
-      </c>
-      <c r="J177">
-        <v>4.94</v>
       </c>
     </row>
     <row r="178">
@@ -4009,10 +3356,7 @@
       <c r="C178">
         <v>4.35</v>
       </c>
-      <c r="F178">
-        <v>4.35</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>flame</t>
         </is>
@@ -4027,19 +3371,13 @@
       <c r="C179">
         <v>4.35</v>
       </c>
-      <c r="F179">
-        <v>4.35</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="E179">
+        <v>5.21</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>suitcase</t>
         </is>
-      </c>
-      <c r="I179">
-        <v>5.21</v>
-      </c>
-      <c r="J179">
-        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -4051,10 +3389,7 @@
       <c r="C180">
         <v>4.35</v>
       </c>
-      <c r="F180">
-        <v>4.35</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>top</t>
         </is>
@@ -4069,10 +3404,7 @@
       <c r="C181">
         <v>4.35</v>
       </c>
-      <c r="F181">
-        <v>4.35</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>praise</t>
         </is>
@@ -4087,10 +3419,7 @@
       <c r="C182">
         <v>4.35</v>
       </c>
-      <c r="F182">
-        <v>4.35</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>courageous</t>
         </is>
@@ -4105,19 +3434,13 @@
       <c r="C183">
         <v>4.35</v>
       </c>
-      <c r="F183">
-        <v>4.35</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="E183">
+        <v>4.21</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>ring</t>
         </is>
-      </c>
-      <c r="I183">
-        <v>4.21</v>
-      </c>
-      <c r="J183">
-        <v>4.92</v>
       </c>
     </row>
     <row r="184">
@@ -4126,16 +3449,13 @@
           <t>gepard</t>
         </is>
       </c>
-      <c r="B184">
+      <c r="C184">
+        <v>4.35</v>
+      </c>
+      <c r="D184">
         <v>0.2</v>
       </c>
-      <c r="D184">
-        <v>4.35</v>
-      </c>
-      <c r="F184">
-        <v>4.35</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>cheetah</t>
         </is>
@@ -4147,16 +3467,13 @@
           <t>dromedar</t>
         </is>
       </c>
-      <c r="B185">
+      <c r="C185">
+        <v>4.35</v>
+      </c>
+      <c r="D185">
         <v>0.26</v>
       </c>
-      <c r="D185">
-        <v>4.35</v>
-      </c>
-      <c r="F185">
-        <v>4.35</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>dromedary</t>
         </is>
@@ -4168,16 +3485,13 @@
           <t>habicht</t>
         </is>
       </c>
-      <c r="B186">
+      <c r="C186">
+        <v>4.35</v>
+      </c>
+      <c r="D186">
         <v>1.77</v>
       </c>
-      <c r="D186">
-        <v>4.35</v>
-      </c>
-      <c r="F186">
-        <v>4.35</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>goshawk</t>
         </is>
@@ -4189,16 +3503,13 @@
           <t>kutter</t>
         </is>
       </c>
-      <c r="B187">
+      <c r="C187">
+        <v>4.35</v>
+      </c>
+      <c r="D187">
         <v>2.1</v>
       </c>
-      <c r="D187">
-        <v>4.35</v>
-      </c>
-      <c r="F187">
-        <v>4.35</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>cutter</t>
         </is>
@@ -4210,16 +3521,13 @@
           <t>bohrmaschine</t>
         </is>
       </c>
-      <c r="B188">
+      <c r="C188">
+        <v>4.35</v>
+      </c>
+      <c r="D188">
         <v>0.38</v>
       </c>
-      <c r="D188">
-        <v>4.35</v>
-      </c>
-      <c r="F188">
-        <v>4.35</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>drill</t>
         </is>
@@ -4231,16 +3539,13 @@
           <t>hürdenlauf</t>
         </is>
       </c>
-      <c r="B189">
+      <c r="C189">
+        <v>4.35</v>
+      </c>
+      <c r="D189">
         <v>0.38</v>
       </c>
-      <c r="D189">
-        <v>4.35</v>
-      </c>
-      <c r="F189">
-        <v>4.35</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>hurdling</t>
         </is>
@@ -4252,16 +3557,13 @@
           <t>volleyball</t>
         </is>
       </c>
-      <c r="B190">
+      <c r="C190">
+        <v>4.35</v>
+      </c>
+      <c r="D190">
         <v>0.14</v>
       </c>
-      <c r="D190">
-        <v>4.35</v>
-      </c>
-      <c r="F190">
-        <v>4.35</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>volleyball</t>
         </is>
@@ -4276,10 +3578,7 @@
       <c r="C191">
         <v>4.36</v>
       </c>
-      <c r="F191">
-        <v>4.36</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>move</t>
         </is>
@@ -4294,10 +3593,7 @@
       <c r="C192">
         <v>4.36</v>
       </c>
-      <c r="F192">
-        <v>4.36</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>salad</t>
         </is>
@@ -4312,10 +3608,7 @@
       <c r="C193">
         <v>4.37</v>
       </c>
-      <c r="F193">
-        <v>4.37</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>letter</t>
         </is>
@@ -4330,10 +3623,7 @@
       <c r="C194">
         <v>4.37</v>
       </c>
-      <c r="F194">
-        <v>4.37</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>point</t>
         </is>
@@ -4345,19 +3635,13 @@
           <t>papagei</t>
         </is>
       </c>
-      <c r="B195">
-        <v>3.45</v>
-      </c>
       <c r="C195">
         <v>4.38</v>
       </c>
       <c r="D195">
-        <v>2.45</v>
-      </c>
-      <c r="F195">
-        <v>4.38</v>
-      </c>
-      <c r="H195" t="inlineStr">
+        <v>3.45</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>parrot</t>
         </is>
@@ -4369,19 +3653,13 @@
           <t>papagei</t>
         </is>
       </c>
-      <c r="B196">
-        <v>3.45</v>
-      </c>
       <c r="C196">
         <v>4.38</v>
       </c>
       <c r="D196">
-        <v>2.6</v>
-      </c>
-      <c r="F196">
-        <v>4.38</v>
-      </c>
-      <c r="H196" t="inlineStr">
+        <v>3.45</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>parrot</t>
         </is>
@@ -4393,25 +3671,22 @@
           <t>jagen</t>
         </is>
       </c>
-      <c r="E197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C197">
         <v>4.38</v>
       </c>
-      <c r="F197">
-        <v>4.38</v>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
           <t>hunt</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -4424,19 +3699,13 @@
       <c r="C198">
         <v>4.39</v>
       </c>
-      <c r="F198">
-        <v>4.39</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="E198">
+        <v>4.21</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>sword</t>
         </is>
-      </c>
-      <c r="I198">
-        <v>4.21</v>
-      </c>
-      <c r="J198">
-        <v>6.05</v>
       </c>
     </row>
     <row r="199">
@@ -4448,10 +3717,7 @@
       <c r="C199">
         <v>4.4</v>
       </c>
-      <c r="F199">
-        <v>4.4</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>beginning</t>
         </is>
@@ -4466,10 +3732,7 @@
       <c r="C200">
         <v>4.4</v>
       </c>
-      <c r="F200">
-        <v>4.4</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>lady</t>
         </is>
@@ -4484,10 +3747,7 @@
       <c r="C201">
         <v>4.4</v>
       </c>
-      <c r="F201">
-        <v>4.4</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>belong</t>
         </is>
@@ -4502,10 +3762,7 @@
       <c r="C202">
         <v>4.4</v>
       </c>
-      <c r="F202">
-        <v>4.4</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>island</t>
         </is>
@@ -4520,10 +3777,7 @@
       <c r="C203">
         <v>4.4</v>
       </c>
-      <c r="F203">
-        <v>4.4</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>dainty</t>
         </is>
@@ -4535,19 +3789,13 @@
           <t>storch</t>
         </is>
       </c>
-      <c r="B204">
-        <v>2.89</v>
-      </c>
       <c r="C204">
         <v>4.4</v>
       </c>
       <c r="D204">
-        <v>2.1</v>
-      </c>
-      <c r="F204">
-        <v>4.4</v>
-      </c>
-      <c r="H204" t="inlineStr">
+        <v>2.89</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>stork</t>
         </is>
@@ -4559,16 +3807,13 @@
           <t>murmeltier</t>
         </is>
       </c>
-      <c r="B205">
+      <c r="C205">
+        <v>4.4</v>
+      </c>
+      <c r="D205">
         <v>0.66</v>
       </c>
-      <c r="D205">
-        <v>4.4</v>
-      </c>
-      <c r="F205">
-        <v>4.4</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>marmot</t>
         </is>
@@ -4580,16 +3825,13 @@
           <t>buchfink</t>
         </is>
       </c>
-      <c r="B206">
+      <c r="C206">
+        <v>4.4</v>
+      </c>
+      <c r="D206">
         <v>0.2</v>
       </c>
-      <c r="D206">
-        <v>4.4</v>
-      </c>
-      <c r="F206">
-        <v>4.4</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>chaffinch</t>
         </is>
@@ -4601,16 +3843,13 @@
           <t>u-bahn</t>
         </is>
       </c>
-      <c r="B207">
+      <c r="C207">
+        <v>4.4</v>
+      </c>
+      <c r="D207">
         <v>1.52</v>
       </c>
-      <c r="D207">
-        <v>4.4</v>
-      </c>
-      <c r="F207">
-        <v>4.4</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>underground railway</t>
         </is>
@@ -4622,16 +3861,13 @@
           <t>bettkasten</t>
         </is>
       </c>
-      <c r="B208">
+      <c r="C208">
+        <v>4.4</v>
+      </c>
+      <c r="D208">
         <v>0.13</v>
       </c>
-      <c r="D208">
-        <v>4.4</v>
-      </c>
-      <c r="F208">
-        <v>4.4</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>bed drawer</t>
         </is>
@@ -4643,16 +3879,13 @@
           <t>dudelsack</t>
         </is>
       </c>
-      <c r="B209">
+      <c r="C209">
+        <v>4.4</v>
+      </c>
+      <c r="D209">
         <v>0.67</v>
       </c>
-      <c r="D209">
-        <v>4.4</v>
-      </c>
-      <c r="F209">
-        <v>4.4</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>bagpipes</t>
         </is>
@@ -4664,16 +3897,13 @@
           <t>buchhändler</t>
         </is>
       </c>
-      <c r="B210">
+      <c r="C210">
+        <v>4.4</v>
+      </c>
+      <c r="D210">
         <v>17.88</v>
       </c>
-      <c r="D210">
-        <v>4.4</v>
-      </c>
-      <c r="F210">
-        <v>4.4</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>bookseller</t>
         </is>
@@ -4688,10 +3918,7 @@
       <c r="C211">
         <v>4.41</v>
       </c>
-      <c r="F211">
-        <v>4.41</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>thief</t>
         </is>
@@ -4706,10 +3933,7 @@
       <c r="C212">
         <v>4.41</v>
       </c>
-      <c r="F212">
-        <v>4.41</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>sparkle</t>
         </is>
@@ -4721,19 +3945,13 @@
           <t>pilot</t>
         </is>
       </c>
-      <c r="B213">
-        <v>5.98</v>
-      </c>
       <c r="C213">
         <v>4.41</v>
       </c>
       <c r="D213">
-        <v>3.25</v>
-      </c>
-      <c r="F213">
-        <v>4.41</v>
-      </c>
-      <c r="H213" t="inlineStr">
+        <v>5.98</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>pilot</t>
         </is>
@@ -4748,10 +3966,7 @@
       <c r="C214">
         <v>4.41</v>
       </c>
-      <c r="F214">
-        <v>4.41</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>rest</t>
         </is>
@@ -4766,10 +3981,7 @@
       <c r="C215">
         <v>4.41</v>
       </c>
-      <c r="F215">
-        <v>4.41</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>role</t>
         </is>
@@ -4784,10 +3996,7 @@
       <c r="C216">
         <v>4.41</v>
       </c>
-      <c r="F216">
-        <v>4.41</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
@@ -4799,16 +4008,13 @@
           <t>graugans</t>
         </is>
       </c>
-      <c r="B217">
+      <c r="C217">
+        <v>4.41</v>
+      </c>
+      <c r="D217">
         <v>0.46</v>
       </c>
-      <c r="D217">
-        <v>4.41</v>
-      </c>
-      <c r="F217">
-        <v>4.41</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>graylag goose</t>
         </is>
@@ -4823,10 +4029,7 @@
       <c r="C218">
         <v>4.42</v>
       </c>
-      <c r="F218">
-        <v>4.42</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>feather</t>
         </is>
@@ -4841,10 +4044,7 @@
       <c r="C219">
         <v>4.42</v>
       </c>
-      <c r="F219">
-        <v>4.42</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>cosy</t>
         </is>
@@ -4859,10 +4059,7 @@
       <c r="C220">
         <v>4.42</v>
       </c>
-      <c r="F220">
-        <v>4.42</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>life</t>
         </is>
@@ -4877,10 +4074,7 @@
       <c r="C221">
         <v>4.42</v>
       </c>
-      <c r="F221">
-        <v>4.42</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>spicy</t>
         </is>
@@ -4895,19 +4089,13 @@
       <c r="C222">
         <v>4.42</v>
       </c>
-      <c r="F222">
-        <v>4.42</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="E222">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>barn</t>
         </is>
-      </c>
-      <c r="I222">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J222">
-        <v>4.89</v>
       </c>
     </row>
     <row r="223">
@@ -4919,10 +4107,7 @@
       <c r="C223">
         <v>4.42</v>
       </c>
-      <c r="F223">
-        <v>4.42</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>be astonished</t>
         </is>
@@ -4937,10 +4122,7 @@
       <c r="C224">
         <v>4.42</v>
       </c>
-      <c r="F224">
-        <v>4.42</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>accident</t>
         </is>
@@ -4955,10 +4137,7 @@
       <c r="C225">
         <v>4.42</v>
       </c>
-      <c r="F225">
-        <v>4.42</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>waffle</t>
         </is>
@@ -4970,16 +4149,13 @@
           <t>skiabfahrt</t>
         </is>
       </c>
-      <c r="B226">
+      <c r="C226">
+        <v>4.42</v>
+      </c>
+      <c r="D226">
         <v>0.02</v>
       </c>
-      <c r="D226">
-        <v>4.42</v>
-      </c>
-      <c r="F226">
-        <v>4.42</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>ski slope</t>
         </is>
@@ -4994,10 +4170,7 @@
       <c r="C227">
         <v>4.43</v>
       </c>
-      <c r="F227">
-        <v>4.43</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>balcony</t>
         </is>
@@ -5012,10 +4185,7 @@
       <c r="C228">
         <v>4.43</v>
       </c>
-      <c r="F228">
-        <v>4.43</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>stench</t>
         </is>
@@ -5030,10 +4200,7 @@
       <c r="C229">
         <v>4.43</v>
       </c>
-      <c r="F229">
-        <v>4.43</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>create</t>
         </is>
@@ -5045,28 +4212,19 @@
           <t>kamel</t>
         </is>
       </c>
-      <c r="B230">
-        <v>2.73</v>
-      </c>
       <c r="C230">
         <v>4.44</v>
       </c>
       <c r="D230">
-        <v>2.55</v>
-      </c>
-      <c r="F230">
-        <v>4.44</v>
-      </c>
-      <c r="H230" t="inlineStr">
+        <v>2.73</v>
+      </c>
+      <c r="E230">
+        <v>5.71</v>
+      </c>
+      <c r="G230" t="inlineStr">
         <is>
           <t>camel</t>
         </is>
-      </c>
-      <c r="I230">
-        <v>5.71</v>
-      </c>
-      <c r="J230">
-        <v>5.67</v>
       </c>
     </row>
     <row r="231">
@@ -5078,10 +4236,7 @@
       <c r="C231">
         <v>4.44</v>
       </c>
-      <c r="F231">
-        <v>4.44</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>disturb</t>
         </is>
@@ -5096,10 +4251,7 @@
       <c r="C232">
         <v>4.44</v>
       </c>
-      <c r="F232">
-        <v>4.44</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>kick</t>
         </is>
@@ -5114,10 +4266,7 @@
       <c r="C233">
         <v>4.45</v>
       </c>
-      <c r="F233">
-        <v>4.45</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>thread</t>
         </is>
@@ -5129,16 +4278,13 @@
           <t>chamäleon</t>
         </is>
       </c>
-      <c r="B234">
+      <c r="C234">
+        <v>4.45</v>
+      </c>
+      <c r="D234">
         <v>0.6899999999999999</v>
       </c>
-      <c r="D234">
-        <v>4.45</v>
-      </c>
-      <c r="F234">
-        <v>4.45</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>chameleon</t>
         </is>
@@ -5150,16 +4296,13 @@
           <t>steinbock</t>
         </is>
       </c>
-      <c r="B235">
+      <c r="C235">
+        <v>4.45</v>
+      </c>
+      <c r="D235">
         <v>0.88</v>
       </c>
-      <c r="D235">
-        <v>4.45</v>
-      </c>
-      <c r="F235">
-        <v>4.45</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>ibex</t>
         </is>
@@ -5171,16 +4314,13 @@
           <t>anzug</t>
         </is>
       </c>
-      <c r="B236">
+      <c r="C236">
+        <v>4.45</v>
+      </c>
+      <c r="D236">
         <v>19.3</v>
       </c>
-      <c r="D236">
-        <v>4.45</v>
-      </c>
-      <c r="F236">
-        <v>4.45</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>suit</t>
         </is>
@@ -5192,16 +4332,13 @@
           <t>handbohrer</t>
         </is>
       </c>
-      <c r="B237">
+      <c r="C237">
+        <v>4.45</v>
+      </c>
+      <c r="D237">
         <v>0.03</v>
       </c>
-      <c r="D237">
-        <v>4.45</v>
-      </c>
-      <c r="F237">
-        <v>4.45</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>auger</t>
         </is>
@@ -5213,16 +4350,13 @@
           <t>bibliothekar</t>
         </is>
       </c>
-      <c r="B238">
+      <c r="C238">
+        <v>4.45</v>
+      </c>
+      <c r="D238">
         <v>2.3</v>
       </c>
-      <c r="D238">
-        <v>4.45</v>
-      </c>
-      <c r="F238">
-        <v>4.45</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>librarian</t>
         </is>
@@ -5234,16 +4368,13 @@
           <t>offizier</t>
         </is>
       </c>
-      <c r="B239">
+      <c r="C239">
+        <v>4.45</v>
+      </c>
+      <c r="D239">
         <v>78.69</v>
       </c>
-      <c r="D239">
-        <v>4.45</v>
-      </c>
-      <c r="F239">
-        <v>4.45</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>officer</t>
         </is>
@@ -5255,13 +4386,10 @@
           <t>postbeamter</t>
         </is>
       </c>
-      <c r="D240">
+      <c r="C240">
         <v>4.45</v>
       </c>
-      <c r="F240">
-        <v>4.45</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>postal worker</t>
         </is>
@@ -5276,10 +4404,7 @@
       <c r="C241">
         <v>4.46</v>
       </c>
-      <c r="F241">
-        <v>4.46</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>lemonade</t>
         </is>
@@ -5294,10 +4419,7 @@
       <c r="C242">
         <v>4.47</v>
       </c>
-      <c r="F242">
-        <v>4.47</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>beginning</t>
         </is>
@@ -5312,10 +4434,7 @@
       <c r="C243">
         <v>4.47</v>
       </c>
-      <c r="F243">
-        <v>4.47</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>fresh</t>
         </is>
@@ -5330,10 +4449,7 @@
       <c r="C244">
         <v>4.47</v>
       </c>
-      <c r="F244">
-        <v>4.47</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>howling</t>
         </is>
@@ -5345,34 +4461,25 @@
           <t>leiter</t>
         </is>
       </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C245">
         <v>4.47</v>
       </c>
       <c r="E245">
-        <v>3.48</v>
-      </c>
-      <c r="F245">
-        <v>4.47</v>
+        <v>2.09</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
           <t>ladder</t>
-        </is>
-      </c>
-      <c r="I245">
-        <v>2.09</v>
-      </c>
-      <c r="J245">
-        <v>6.52</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5385,10 +4492,7 @@
       <c r="C246">
         <v>4.47</v>
       </c>
-      <c r="F246">
-        <v>4.47</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>moss</t>
         </is>
@@ -5403,10 +4507,7 @@
       <c r="C247">
         <v>4.47</v>
       </c>
-      <c r="F247">
-        <v>4.47</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>cattle</t>
         </is>
@@ -5421,10 +4522,7 @@
       <c r="C248">
         <v>4.47</v>
       </c>
-      <c r="F248">
-        <v>4.47</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>slippery</t>
         </is>
@@ -5439,10 +4537,7 @@
       <c r="C249">
         <v>4.47</v>
       </c>
-      <c r="F249">
-        <v>4.47</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>world</t>
         </is>
@@ -5454,28 +4549,19 @@
           <t>zwiebel</t>
         </is>
       </c>
-      <c r="B250">
-        <v>10.5</v>
-      </c>
       <c r="C250">
         <v>4.47</v>
       </c>
       <c r="D250">
-        <v>2.2</v>
-      </c>
-      <c r="F250">
-        <v>4.47</v>
-      </c>
-      <c r="H250" t="inlineStr">
+        <v>10.5</v>
+      </c>
+      <c r="E250">
+        <v>5.71</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>onion</t>
         </is>
-      </c>
-      <c r="I250">
-        <v>5.71</v>
-      </c>
-      <c r="J250">
-        <v>5.75</v>
       </c>
     </row>
     <row r="251">
@@ -5484,16 +4570,13 @@
           <t>maurerkelle</t>
         </is>
       </c>
-      <c r="B251">
+      <c r="C251">
+        <v>4.47</v>
+      </c>
+      <c r="D251">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D251">
-        <v>4.47</v>
-      </c>
-      <c r="F251">
-        <v>4.47</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>trowel</t>
         </is>
@@ -5505,16 +4588,13 @@
           <t>bobfahren</t>
         </is>
       </c>
-      <c r="B252">
+      <c r="C252">
+        <v>4.47</v>
+      </c>
+      <c r="D252">
         <v>1.46</v>
       </c>
-      <c r="D252">
-        <v>4.47</v>
-      </c>
-      <c r="F252">
-        <v>4.47</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>bobsleigh</t>
         </is>
@@ -5529,10 +4609,7 @@
       <c r="C253">
         <v>4.48</v>
       </c>
-      <c r="F253">
-        <v>4.48</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>nobody</t>
         </is>
@@ -5547,10 +4624,7 @@
       <c r="C254">
         <v>4.5</v>
       </c>
-      <c r="F254">
-        <v>4.5</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>need</t>
         </is>
@@ -5565,10 +4639,7 @@
       <c r="C255">
         <v>4.5</v>
       </c>
-      <c r="F255">
-        <v>4.5</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>permit</t>
         </is>
@@ -5583,10 +4654,7 @@
       <c r="C256">
         <v>4.5</v>
       </c>
-      <c r="F256">
-        <v>4.5</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>hut</t>
         </is>
@@ -5601,10 +4669,7 @@
       <c r="C257">
         <v>4.5</v>
       </c>
-      <c r="F257">
-        <v>4.5</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>cable</t>
         </is>
@@ -5619,10 +4684,7 @@
       <c r="C258">
         <v>4.5</v>
       </c>
-      <c r="F258">
-        <v>4.5</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>nibble</t>
         </is>
@@ -5637,10 +4699,7 @@
       <c r="C259">
         <v>4.5</v>
       </c>
-      <c r="F259">
-        <v>4.5</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>tear</t>
         </is>
@@ -5655,10 +4714,7 @@
       <c r="C260">
         <v>4.5</v>
       </c>
-      <c r="F260">
-        <v>4.5</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>backpack</t>
         </is>
@@ -5673,10 +4729,7 @@
       <c r="C261">
         <v>4.5</v>
       </c>
-      <c r="F261">
-        <v>4.5</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>dive</t>
         </is>
@@ -5691,10 +4744,7 @@
       <c r="C262">
         <v>4.5</v>
       </c>
-      <c r="F262">
-        <v>4.5</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>dough</t>
         </is>
@@ -5709,10 +4759,7 @@
       <c r="C263">
         <v>4.5</v>
       </c>
-      <c r="F263">
-        <v>4.5</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>word</t>
         </is>
@@ -5727,10 +4774,7 @@
       <c r="C264">
         <v>4.5</v>
       </c>
-      <c r="F264">
-        <v>4.5</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>wound</t>
         </is>
@@ -5742,16 +4786,13 @@
           <t>flugente</t>
         </is>
       </c>
-      <c r="B265">
+      <c r="C265">
+        <v>4.5</v>
+      </c>
+      <c r="D265">
         <v>0.02</v>
       </c>
-      <c r="D265">
-        <v>4.5</v>
-      </c>
-      <c r="F265">
-        <v>4.5</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>muscovy duck</t>
         </is>
@@ -5763,16 +4804,13 @@
           <t>kommissar</t>
         </is>
       </c>
-      <c r="B266">
+      <c r="C266">
+        <v>4.5</v>
+      </c>
+      <c r="D266">
         <v>12.09</v>
       </c>
-      <c r="D266">
-        <v>4.5</v>
-      </c>
-      <c r="F266">
-        <v>4.5</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>inspector</t>
         </is>
@@ -5787,10 +4825,7 @@
       <c r="C267">
         <v>4.52</v>
       </c>
-      <c r="F267">
-        <v>4.52</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>thunderstorm</t>
         </is>
@@ -5805,10 +4840,7 @@
       <c r="C268">
         <v>4.52</v>
       </c>
-      <c r="F268">
-        <v>4.52</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>conker</t>
         </is>
@@ -5823,10 +4855,7 @@
       <c r="C269">
         <v>4.52</v>
       </c>
-      <c r="F269">
-        <v>4.52</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>postman</t>
         </is>
@@ -5841,10 +4870,7 @@
       <c r="C270">
         <v>4.52</v>
       </c>
-      <c r="F270">
-        <v>4.52</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>stumble</t>
         </is>
@@ -5859,10 +4885,7 @@
       <c r="C271">
         <v>4.52</v>
       </c>
-      <c r="F271">
-        <v>4.52</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>weekend</t>
         </is>
@@ -5874,25 +4897,22 @@
           <t>anzünden</t>
         </is>
       </c>
-      <c r="E272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C272">
         <v>4.52</v>
       </c>
-      <c r="F272">
-        <v>4.52</v>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
           <t>light</t>
-        </is>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5902,16 +4922,13 @@
           <t>wirsingkohl</t>
         </is>
       </c>
-      <c r="B273">
+      <c r="C273">
+        <v>4.53</v>
+      </c>
+      <c r="D273">
         <v>0.35</v>
       </c>
-      <c r="D273">
-        <v>4.53</v>
-      </c>
-      <c r="F273">
-        <v>4.53</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>savoy cabbage</t>
         </is>
@@ -5923,16 +4940,13 @@
           <t>fechten</t>
         </is>
       </c>
-      <c r="B274">
+      <c r="C274">
+        <v>4.53</v>
+      </c>
+      <c r="D274">
         <v>1.01</v>
       </c>
-      <c r="D274">
-        <v>4.53</v>
-      </c>
-      <c r="F274">
-        <v>4.53</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>fencing</t>
         </is>
@@ -5947,10 +4961,7 @@
       <c r="C275">
         <v>4.53</v>
       </c>
-      <c r="F275">
-        <v>4.53</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>postcard</t>
         </is>
@@ -5965,10 +4976,7 @@
       <c r="C276">
         <v>4.53</v>
       </c>
-      <c r="F276">
-        <v>4.53</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>lie</t>
         </is>
@@ -5983,10 +4991,7 @@
       <c r="C277">
         <v>4.53</v>
       </c>
-      <c r="F277">
-        <v>4.53</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>treasure</t>
         </is>
@@ -6001,10 +5006,7 @@
       <c r="C278">
         <v>4.53</v>
       </c>
-      <c r="F278">
-        <v>4.53</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>jewellery</t>
         </is>
@@ -6019,10 +5021,7 @@
       <c r="C279">
         <v>4.53</v>
       </c>
-      <c r="F279">
-        <v>4.53</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>defiant</t>
         </is>
@@ -6037,10 +5036,7 @@
       <c r="C280">
         <v>4.53</v>
       </c>
-      <c r="F280">
-        <v>4.53</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>wish</t>
         </is>
@@ -6055,10 +5051,7 @@
       <c r="C281">
         <v>4.54</v>
       </c>
-      <c r="F281">
-        <v>4.54</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>sticker</t>
         </is>
@@ -6073,10 +5066,7 @@
       <c r="C282">
         <v>4.54</v>
       </c>
-      <c r="F282">
-        <v>4.54</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>half</t>
         </is>
@@ -6091,10 +5081,7 @@
       <c r="C283">
         <v>4.54</v>
       </c>
-      <c r="F283">
-        <v>4.54</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>prick</t>
         </is>
@@ -6109,10 +5096,7 @@
       <c r="C284">
         <v>4.54</v>
       </c>
-      <c r="F284">
-        <v>4.54</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>stop</t>
         </is>
@@ -6127,10 +5111,7 @@
       <c r="C285">
         <v>4.55</v>
       </c>
-      <c r="F285">
-        <v>4.55</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>blond</t>
         </is>
@@ -6142,19 +5123,13 @@
           <t>bluse</t>
         </is>
       </c>
-      <c r="B286">
-        <v>6.78</v>
-      </c>
       <c r="C286">
         <v>4.55</v>
       </c>
       <c r="D286">
-        <v>2.95</v>
-      </c>
-      <c r="F286">
-        <v>4.55</v>
-      </c>
-      <c r="H286" t="inlineStr">
+        <v>6.78</v>
+      </c>
+      <c r="G286" t="inlineStr">
         <is>
           <t>blouse</t>
         </is>
@@ -6166,16 +5141,13 @@
           <t>shorts</t>
         </is>
       </c>
-      <c r="B287">
+      <c r="C287">
+        <v>4.55</v>
+      </c>
+      <c r="D287">
         <v>0.45</v>
       </c>
-      <c r="D287">
-        <v>4.55</v>
-      </c>
-      <c r="F287">
-        <v>4.55</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>shorts</t>
         </is>
@@ -6187,16 +5159,13 @@
           <t>kontrabass</t>
         </is>
       </c>
-      <c r="B288">
+      <c r="C288">
+        <v>4.55</v>
+      </c>
+      <c r="D288">
         <v>0.02</v>
       </c>
-      <c r="D288">
-        <v>4.55</v>
-      </c>
-      <c r="F288">
-        <v>4.55</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>double bass</t>
         </is>
@@ -6208,16 +5177,13 @@
           <t>kreissäge</t>
         </is>
       </c>
-      <c r="B289">
+      <c r="C289">
+        <v>4.55</v>
+      </c>
+      <c r="D289">
         <v>0.45</v>
       </c>
-      <c r="D289">
-        <v>4.55</v>
-      </c>
-      <c r="F289">
-        <v>4.55</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>circular saw</t>
         </is>
@@ -6229,25 +5195,19 @@
           <t>laubsäge</t>
         </is>
       </c>
-      <c r="B290">
+      <c r="C290">
+        <v>4.55</v>
+      </c>
+      <c r="D290">
         <v>0.19</v>
       </c>
-      <c r="D290">
-        <v>4.55</v>
-      </c>
-      <c r="F290">
-        <v>4.55</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="E290">
+        <v>3.21</v>
+      </c>
+      <c r="G290" t="inlineStr">
         <is>
           <t>jigsaw</t>
         </is>
-      </c>
-      <c r="I290">
-        <v>3.21</v>
-      </c>
-      <c r="J290">
-        <v>7.63</v>
       </c>
     </row>
     <row r="291">
@@ -6256,25 +5216,19 @@
           <t>pförtner</t>
         </is>
       </c>
-      <c r="B291">
+      <c r="C291">
+        <v>4.55</v>
+      </c>
+      <c r="D291">
         <v>2.66</v>
       </c>
-      <c r="D291">
-        <v>4.55</v>
-      </c>
-      <c r="F291">
-        <v>4.55</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="E291">
+        <v>11.67</v>
+      </c>
+      <c r="G291" t="inlineStr">
         <is>
           <t>porter</t>
         </is>
-      </c>
-      <c r="I291">
-        <v>11.67</v>
-      </c>
-      <c r="J291">
-        <v>10.6</v>
       </c>
     </row>
     <row r="292">
@@ -6283,16 +5237,13 @@
           <t>filmvorführer</t>
         </is>
       </c>
-      <c r="B292">
+      <c r="C292">
+        <v>4.55</v>
+      </c>
+      <c r="D292">
         <v>0.16</v>
       </c>
-      <c r="D292">
-        <v>4.55</v>
-      </c>
-      <c r="F292">
-        <v>4.55</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>projectionist</t>
         </is>
@@ -6307,10 +5258,7 @@
       <c r="C293">
         <v>4.56</v>
       </c>
-      <c r="F293">
-        <v>4.56</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>start</t>
         </is>
@@ -6322,19 +5270,13 @@
           <t>lehrer</t>
         </is>
       </c>
-      <c r="B294">
-        <v>81.02</v>
-      </c>
       <c r="C294">
         <v>4.56</v>
       </c>
       <c r="D294">
-        <v>2.9</v>
-      </c>
-      <c r="F294">
-        <v>4.56</v>
-      </c>
-      <c r="H294" t="inlineStr">
+        <v>81.02</v>
+      </c>
+      <c r="G294" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
@@ -6349,10 +5291,7 @@
       <c r="C295">
         <v>4.56</v>
       </c>
-      <c r="F295">
-        <v>4.56</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>travel</t>
         </is>
@@ -6367,10 +5306,7 @@
       <c r="C296">
         <v>4.56</v>
       </c>
-      <c r="F296">
-        <v>4.56</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>apron</t>
         </is>
@@ -6385,10 +5321,7 @@
       <c r="C297">
         <v>4.56</v>
       </c>
-      <c r="F297">
-        <v>4.56</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
@@ -6403,10 +5336,7 @@
       <c r="C298">
         <v>4.57</v>
       </c>
-      <c r="F298">
-        <v>4.57</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>lie</t>
         </is>
@@ -6421,10 +5351,7 @@
       <c r="C299">
         <v>4.57</v>
       </c>
-      <c r="F299">
-        <v>4.57</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>fist</t>
         </is>
@@ -6439,10 +5366,7 @@
       <c r="C300">
         <v>4.57</v>
       </c>
-      <c r="F300">
-        <v>4.57</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>middle</t>
         </is>
@@ -6457,10 +5381,7 @@
       <c r="C301">
         <v>4.57</v>
       </c>
-      <c r="F301">
-        <v>4.57</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>grow</t>
         </is>
@@ -6472,16 +5393,13 @@
           <t>feuerkäfer</t>
         </is>
       </c>
-      <c r="B302">
+      <c r="C302">
+        <v>4.58</v>
+      </c>
+      <c r="D302">
         <v>0.01</v>
       </c>
-      <c r="D302">
-        <v>4.58</v>
-      </c>
-      <c r="F302">
-        <v>4.58</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>cardinal beetle</t>
         </is>
@@ -6496,10 +5414,7 @@
       <c r="C303">
         <v>4.58</v>
       </c>
-      <c r="F303">
-        <v>4.58</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>outing</t>
         </is>
@@ -6514,10 +5429,7 @@
       <c r="C304">
         <v>4.58</v>
       </c>
-      <c r="F304">
-        <v>4.58</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>tuesday</t>
         </is>
@@ -6532,10 +5444,7 @@
       <c r="C305">
         <v>4.58</v>
       </c>
-      <c r="F305">
-        <v>4.58</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>polite</t>
         </is>
@@ -6547,19 +5456,13 @@
           <t>meise</t>
         </is>
       </c>
-      <c r="B306">
-        <v>0.82</v>
-      </c>
       <c r="C306">
         <v>4.58</v>
       </c>
       <c r="D306">
-        <v>3.25</v>
-      </c>
-      <c r="F306">
-        <v>4.58</v>
-      </c>
-      <c r="H306" t="inlineStr">
+        <v>0.82</v>
+      </c>
+      <c r="G306" t="inlineStr">
         <is>
           <t>tit</t>
         </is>
@@ -6574,10 +5477,7 @@
       <c r="C307">
         <v>4.58</v>
       </c>
-      <c r="F307">
-        <v>4.58</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>teaspoon</t>
         </is>
@@ -6589,19 +5489,13 @@
           <t>truhe</t>
         </is>
       </c>
-      <c r="B308">
-        <v>3.59</v>
-      </c>
       <c r="C308">
         <v>4.58</v>
       </c>
       <c r="D308">
-        <v>3</v>
-      </c>
-      <c r="F308">
-        <v>4.58</v>
-      </c>
-      <c r="H308" t="inlineStr">
+        <v>3.59</v>
+      </c>
+      <c r="G308" t="inlineStr">
         <is>
           <t>chest</t>
         </is>
@@ -6616,10 +5510,7 @@
       <c r="C309">
         <v>4.58</v>
       </c>
-      <c r="F309">
-        <v>4.58</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>know</t>
         </is>
@@ -6634,10 +5525,7 @@
       <c r="C310">
         <v>4.59</v>
       </c>
-      <c r="F310">
-        <v>4.59</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>farewell</t>
         </is>
@@ -6652,19 +5540,13 @@
       <c r="C311">
         <v>4.59</v>
       </c>
-      <c r="F311">
-        <v>4.59</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="E311">
+        <v>3.21</v>
+      </c>
+      <c r="G311" t="inlineStr">
         <is>
           <t>television</t>
         </is>
-      </c>
-      <c r="I311">
-        <v>3.21</v>
-      </c>
-      <c r="J311">
-        <v>6.55</v>
       </c>
     </row>
     <row r="312">
@@ -6676,19 +5558,13 @@
       <c r="C312">
         <v>4.59</v>
       </c>
-      <c r="F312">
-        <v>4.59</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="E312">
+        <v>3.71</v>
+      </c>
+      <c r="G312" t="inlineStr">
         <is>
           <t>church</t>
         </is>
-      </c>
-      <c r="I312">
-        <v>3.71</v>
-      </c>
-      <c r="J312">
-        <v>5.02</v>
       </c>
     </row>
     <row r="313">
@@ -6700,19 +5576,13 @@
       <c r="C313">
         <v>4.59</v>
       </c>
-      <c r="F313">
-        <v>4.59</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="E313">
+        <v>3.71</v>
+      </c>
+      <c r="G313" t="inlineStr">
         <is>
           <t>church</t>
         </is>
-      </c>
-      <c r="I313">
-        <v>3.71</v>
-      </c>
-      <c r="J313">
-        <v>5.02</v>
       </c>
     </row>
     <row r="314">
@@ -6724,10 +5594,7 @@
       <c r="C314">
         <v>4.59</v>
       </c>
-      <c r="F314">
-        <v>4.59</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>power</t>
         </is>
@@ -6742,10 +5609,7 @@
       <c r="C315">
         <v>4.59</v>
       </c>
-      <c r="F315">
-        <v>4.59</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>people</t>
         </is>
@@ -6760,10 +5624,7 @@
       <c r="C316">
         <v>4.59</v>
       </c>
-      <c r="F316">
-        <v>4.59</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>muck</t>
         </is>
@@ -6778,10 +5639,7 @@
       <c r="C317">
         <v>4.59</v>
       </c>
-      <c r="F317">
-        <v>4.59</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>nest</t>
         </is>
@@ -6793,28 +5651,22 @@
           <t>wiegen</t>
         </is>
       </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C318">
         <v>4.59</v>
       </c>
-      <c r="E318">
-        <v>4</v>
-      </c>
-      <c r="F318">
-        <v>4.59</v>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
           <t>weigh</t>
-        </is>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -6824,40 +5676,28 @@
           <t>ameise</t>
         </is>
       </c>
-      <c r="B319">
-        <v>5.38</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C319">
         <v>4.6</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>5.38</v>
       </c>
       <c r="E319">
-        <v>2.81</v>
-      </c>
-      <c r="F319">
-        <v>4.6</v>
+        <v>5.21</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H319" t="inlineStr">
-        <is>
           <t>ant</t>
-        </is>
-      </c>
-      <c r="I319">
-        <v>5.21</v>
-      </c>
-      <c r="J319">
-        <v>3.83</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -6870,10 +5710,7 @@
       <c r="C320">
         <v>4.6</v>
       </c>
-      <c r="F320">
-        <v>4.6</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>fantasy</t>
         </is>
@@ -6888,10 +5725,7 @@
       <c r="C321">
         <v>4.6</v>
       </c>
-      <c r="F321">
-        <v>4.6</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>healthy</t>
         </is>
@@ -6906,19 +5740,13 @@
       <c r="C322">
         <v>4.6</v>
       </c>
-      <c r="F322">
-        <v>4.6</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="E322">
+        <v>2.09</v>
+      </c>
+      <c r="G322" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
-      </c>
-      <c r="I322">
-        <v>2.09</v>
-      </c>
-      <c r="J322">
-        <v>4.56</v>
       </c>
     </row>
     <row r="323">
@@ -6927,16 +5755,13 @@
           <t>frettchen</t>
         </is>
       </c>
-      <c r="B323">
+      <c r="C323">
+        <v>4.6</v>
+      </c>
+      <c r="D323">
         <v>0.09</v>
       </c>
-      <c r="D323">
-        <v>4.6</v>
-      </c>
-      <c r="F323">
-        <v>4.6</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>ferret</t>
         </is>
@@ -6948,16 +5773,13 @@
           <t>rettich</t>
         </is>
       </c>
-      <c r="B324">
+      <c r="C324">
+        <v>4.6</v>
+      </c>
+      <c r="D324">
         <v>1.42</v>
       </c>
-      <c r="D324">
-        <v>4.6</v>
-      </c>
-      <c r="F324">
-        <v>4.6</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>white radish</t>
         </is>
@@ -6969,16 +5791,13 @@
           <t>walze</t>
         </is>
       </c>
-      <c r="B325">
+      <c r="C325">
+        <v>4.6</v>
+      </c>
+      <c r="D325">
         <v>3.66</v>
       </c>
-      <c r="D325">
-        <v>4.6</v>
-      </c>
-      <c r="F325">
-        <v>4.6</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>roller</t>
         </is>
@@ -6990,16 +5809,13 @@
           <t>kugelstoßen</t>
         </is>
       </c>
-      <c r="B326">
+      <c r="C326">
+        <v>4.6</v>
+      </c>
+      <c r="D326">
         <v>0.2</v>
       </c>
-      <c r="D326">
-        <v>4.6</v>
-      </c>
-      <c r="F326">
-        <v>4.6</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>shot put</t>
         </is>
@@ -7011,16 +5827,13 @@
           <t>optiker</t>
         </is>
       </c>
-      <c r="B327">
+      <c r="C327">
+        <v>4.6</v>
+      </c>
+      <c r="D327">
         <v>0.38</v>
       </c>
-      <c r="D327">
-        <v>4.6</v>
-      </c>
-      <c r="F327">
-        <v>4.6</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>optician</t>
         </is>
@@ -7035,10 +5848,7 @@
       <c r="C328">
         <v>4.61</v>
       </c>
-      <c r="F328">
-        <v>4.61</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>shepherd</t>
         </is>
@@ -7053,10 +5863,7 @@
       <c r="C329">
         <v>4.61</v>
       </c>
-      <c r="F329">
-        <v>4.61</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>pause</t>
         </is>
@@ -7071,10 +5878,7 @@
       <c r="C330">
         <v>4.61</v>
       </c>
-      <c r="F330">
-        <v>4.61</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>pizza</t>
         </is>
@@ -7089,10 +5893,7 @@
       <c r="C331">
         <v>4.61</v>
       </c>
-      <c r="F331">
-        <v>4.61</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>journey</t>
         </is>
@@ -7107,10 +5908,7 @@
       <c r="C332">
         <v>4.61</v>
       </c>
-      <c r="F332">
-        <v>4.61</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>crafty</t>
         </is>
@@ -7125,10 +5923,7 @@
       <c r="C333">
         <v>4.61</v>
       </c>
-      <c r="F333">
-        <v>4.61</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>silverware</t>
         </is>
@@ -7143,10 +5938,7 @@
       <c r="C334">
         <v>4.61</v>
       </c>
-      <c r="F334">
-        <v>4.61</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>siren</t>
         </is>
@@ -7158,25 +5950,22 @@
           <t>melken</t>
         </is>
       </c>
-      <c r="E335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C335">
         <v>4.62</v>
       </c>
-      <c r="F335">
-        <v>4.62</v>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
           <t>milk</t>
-        </is>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -7189,10 +5978,7 @@
       <c r="C336">
         <v>4.63</v>
       </c>
-      <c r="F336">
-        <v>4.63</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>work</t>
         </is>
@@ -7207,10 +5993,7 @@
       <c r="C337">
         <v>4.63</v>
       </c>
-      <c r="F337">
-        <v>4.63</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>fisher</t>
         </is>
@@ -7225,10 +6008,7 @@
       <c r="C338">
         <v>4.63</v>
       </c>
-      <c r="F338">
-        <v>4.63</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>dialogue</t>
         </is>
@@ -7243,10 +6023,7 @@
       <c r="C339">
         <v>4.63</v>
       </c>
-      <c r="F339">
-        <v>4.63</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>porridge</t>
         </is>
@@ -7261,19 +6038,13 @@
       <c r="C340">
         <v>4.63</v>
       </c>
-      <c r="F340">
-        <v>4.63</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="E340">
+        <v>3.21</v>
+      </c>
+      <c r="G340" t="inlineStr">
         <is>
           <t>bowl</t>
         </is>
-      </c>
-      <c r="I340">
-        <v>3.21</v>
-      </c>
-      <c r="J340">
-        <v>4.7</v>
       </c>
     </row>
     <row r="341">
@@ -7285,10 +6056,7 @@
       <c r="C341">
         <v>4.63</v>
       </c>
-      <c r="F341">
-        <v>4.63</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>should</t>
         </is>
@@ -7300,16 +6068,13 @@
           <t>rührgerät</t>
         </is>
       </c>
-      <c r="B342">
+      <c r="C342">
+        <v>4.63</v>
+      </c>
+      <c r="D342">
         <v>0.02</v>
       </c>
-      <c r="D342">
-        <v>4.63</v>
-      </c>
-      <c r="F342">
-        <v>4.63</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>mixer</t>
         </is>
@@ -7324,10 +6089,7 @@
       <c r="C343">
         <v>4.64</v>
       </c>
-      <c r="F343">
-        <v>4.64</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>break</t>
         </is>
@@ -7342,10 +6104,7 @@
       <c r="C344">
         <v>4.64</v>
       </c>
-      <c r="F344">
-        <v>4.64</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>fight</t>
         </is>
@@ -7357,28 +6116,22 @@
           <t>knochen</t>
         </is>
       </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C345">
         <v>4.64</v>
       </c>
-      <c r="E345">
-        <v>4.33</v>
-      </c>
-      <c r="F345">
-        <v>4.64</v>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
           <t>bone</t>
-        </is>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
